--- a/templates/huahan_global.xlsx
+++ b/templates/huahan_global.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>国家</t>
   </si>
@@ -68,7 +68,7 @@
     <t>加拿大</t>
   </si>
   <si>
-    <t>0-0.3kg</t>
+    <t>0.05-0.3kg</t>
   </si>
   <si>
     <t>8-12个工作日</t>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>PK0312 华翰全球专线挂号-特货98折挂号费不打折  PK0344华邮通挂号-特货Plus 93折挂号费不打折  PK0365 华翰E特快没有折扣</t>
+  </si>
+  <si>
+    <t>0-0.3kg</t>
   </si>
   <si>
     <r>
@@ -516,10 +519,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="46">
@@ -691,16 +694,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -712,22 +732,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,17 +800,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,34 +820,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -801,31 +828,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,7 +898,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +922,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,19 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,13 +1012,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,115 +1072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,11 +1155,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,17 +1185,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,11 +1214,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,23 +1247,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1254,145 +1257,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1406,25 +1409,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,7 +1436,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,58 +1454,58 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="6" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="6" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="6" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="6" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="6" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="6" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="13" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="7" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="15" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="7" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="13" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="16" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="16" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1511,7 +1514,7 @@
     <xf numFmtId="176" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1523,48 +1526,48 @@
     <xf numFmtId="176" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="6" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="6" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="6" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="6" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="13" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="7" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="7" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="16" fillId="7" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1890,7 +1893,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2753,7 +2756,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6">
         <v>133</v>
@@ -3376,7 +3379,7 @@
     </row>
     <row r="44" ht="20.4" spans="1:7">
       <c r="A44" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -3387,7 +3390,7 @@
     </row>
     <row r="45" ht="20.4" spans="1:7">
       <c r="A45" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -3398,7 +3401,7 @@
     </row>
     <row r="46" ht="20.4" spans="1:7">
       <c r="A46" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -3409,7 +3412,7 @@
     </row>
     <row r="47" ht="20.4" spans="1:7">
       <c r="A47" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3420,7 +3423,7 @@
     </row>
     <row r="48" ht="20.4" spans="1:7">
       <c r="A48" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -3431,7 +3434,7 @@
     </row>
     <row r="49" ht="20.4" spans="1:7">
       <c r="A49" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="50" ht="20.4" spans="1:7">
       <c r="A50" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3453,7 +3456,7 @@
     </row>
     <row r="51" ht="20.4" spans="1:7">
       <c r="A51" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="52" ht="20.4" spans="1:7">
       <c r="A52" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -3475,7 +3478,7 @@
     </row>
     <row r="53" ht="20.4" spans="1:7">
       <c r="A53" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -3486,7 +3489,7 @@
     </row>
     <row r="54" ht="20.4" spans="1:7">
       <c r="A54" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -3497,7 +3500,7 @@
     </row>
     <row r="55" ht="20.4" spans="1:7">
       <c r="A55" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3508,7 +3511,7 @@
     </row>
     <row r="56" ht="20.4" spans="1:7">
       <c r="A56" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="57" ht="20.4" spans="1:7">
       <c r="A57" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3530,7 +3533,7 @@
     </row>
     <row r="58" ht="20.4" spans="1:7">
       <c r="A58" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3541,20 +3544,20 @@
     </row>
     <row r="59" ht="20.4" spans="1:7">
       <c r="A59" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
       <c r="E59" s="46"/>
       <c r="F59" s="48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G59" s="37"/>
     </row>
     <row r="60" ht="20.4" spans="1:7">
       <c r="A60" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -3565,7 +3568,7 @@
     </row>
     <row r="61" ht="20.4" spans="1:7">
       <c r="A61" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -3576,7 +3579,7 @@
     </row>
     <row r="62" ht="20.4" spans="1:7">
       <c r="A62" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -3587,20 +3590,20 @@
     </row>
     <row r="63" ht="20.4" spans="1:7">
       <c r="A63" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="46"/>
       <c r="F63" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G63" s="37"/>
     </row>
     <row r="64" ht="20.4" spans="1:7">
       <c r="A64" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="65" ht="20.4" spans="1:7">
       <c r="A65" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3622,7 +3625,7 @@
     </row>
     <row r="66" ht="20.4" spans="1:7">
       <c r="A66" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="67" ht="20.4" spans="1:7">
       <c r="A67" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -3644,7 +3647,7 @@
     </row>
     <row r="68" ht="20.4" spans="1:7">
       <c r="A68" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -3655,7 +3658,7 @@
     </row>
     <row r="69" ht="20.4" spans="1:7">
       <c r="A69" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -3666,7 +3669,7 @@
     </row>
     <row r="70" ht="20.4" spans="1:7">
       <c r="A70" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -3677,7 +3680,7 @@
     </row>
     <row r="71" ht="20.4" spans="1:7">
       <c r="A71" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -3688,7 +3691,7 @@
     </row>
     <row r="72" ht="20.4" spans="1:7">
       <c r="A72" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3699,7 +3702,7 @@
     </row>
     <row r="73" ht="20.4" spans="1:7">
       <c r="A73" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3710,7 +3713,7 @@
     </row>
     <row r="74" ht="20.4" spans="1:7">
       <c r="A74" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="75" ht="20.4" spans="1:7">
       <c r="A75" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="76" ht="20.4" spans="1:7">
       <c r="A76" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="77" ht="20.4" spans="1:7">
       <c r="A77" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="53"/>
       <c r="C77" s="53"/>
